--- a/inspection/pdfbox.xlsx
+++ b/inspection/pdfbox.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DA7129-0D00-4F49-9D2B-C23D698F3D30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>parameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,13 +276,16 @@
   </si>
   <si>
     <t>f_score</t>
+  </si>
+  <si>
+    <t>resources the resources, can be null.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,8 +300,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +322,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -314,10 +337,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,9 +360,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -613,20 +641,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="63.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -639,7 +667,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -654,7 +682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -665,7 +693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -676,7 +704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -687,7 +715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -698,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -710,7 +738,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -721,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -732,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -743,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -754,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -765,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -776,7 +804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -787,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -798,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -809,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -820,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -831,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -842,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -853,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -864,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -875,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -886,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -897,15 +925,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="D25" s="6"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
@@ -914,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -923,7 +953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
@@ -932,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
@@ -943,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
@@ -954,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
@@ -965,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
@@ -976,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
@@ -987,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
@@ -998,7 +1028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
@@ -1009,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
@@ -1020,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
@@ -1031,7 +1061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
@@ -1042,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>60</v>
       </c>
@@ -1056,7 +1086,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>62</v>
       </c>
@@ -1070,7 +1100,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
@@ -1081,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -1092,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
@@ -1103,7 +1133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
@@ -1114,7 +1144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
@@ -1125,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
@@ -1136,7 +1166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
@@ -1147,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
@@ -1158,15 +1188,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D49" s="8">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
@@ -1177,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>64</v>
       </c>
@@ -1186,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>49</v>
       </c>
@@ -1197,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>50</v>
       </c>
@@ -1208,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>51</v>
       </c>
@@ -1219,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>65</v>
       </c>
@@ -1228,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>52</v>
       </c>
@@ -1239,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
@@ -1248,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>67</v>
       </c>
@@ -1262,7 +1298,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>53</v>
       </c>
@@ -1270,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
@@ -1281,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>55</v>
       </c>
@@ -1292,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>68</v>
       </c>
@@ -1301,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>69</v>
       </c>
@@ -1309,7 +1345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>56</v>
       </c>
@@ -1317,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>57</v>
       </c>
@@ -1328,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>71</v>
       </c>
@@ -1342,33 +1378,33 @@
       </c>
       <c r="D68" s="6">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E68" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B70">
         <f>COUNTIFS(B3:B65,1,D3:D65,1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70">
         <f>COUNTIFS(C3:C65,1,E3:E65,1)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B72">
         <f>B70/B68</f>
-        <v>0.63636363636363635</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="C72">
         <f>C70/C68</f>
@@ -1383,26 +1419,26 @@
         <v>0.86274509803921573</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B74">
         <f>SUM(B70:C70)/SUM(B68:C68)</f>
-        <v>0.9107142857142857</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C74">
         <f>SUM(B70:C70)/SUM(D68:E68)</f>
-        <v>0.87931034482758619</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.88135593220338981</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B76">
         <f>2*B74*C74/SUM(B74:C74)</f>
-        <v>0.89473684210526316</v>
+        <v>0.90434782608695641</v>
       </c>
     </row>
   </sheetData>
